--- a/03-mcnulty/data/04_event_type.xlsx
+++ b/03-mcnulty/data/04_event_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natali/Code/Metis/Metis-Bootcamp/03-mcnulty/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50109CA-9262-1C46-B7D6-6F29182E0ADF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F48071-1AD4-F34A-B74A-B371E0ED5501}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="1500" windowWidth="27560" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
